--- a/Participantes/Isaac.xlsx
+++ b/Participantes/Isaac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leine\Documentos\QUINIELA-VENECA\Participantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6AAB1E-A5E9-4842-8F3B-640C041E341D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664C7D7B-C2A3-4961-B9A2-97C0FA492FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="18000" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1A07F19-1258-4827-8AF7-173CDFEC396E}"/>
   </bookViews>
   <sheets>
     <sheet name="Normas" sheetId="23" r:id="rId1"/>
@@ -39,9 +39,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
@@ -57,7 +60,7 @@
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1000,9 +1003,6 @@
     <t>Portero de oro</t>
   </si>
   <si>
-    <t>Nombre ISAAC BERMUDEZ</t>
-  </si>
-  <si>
     <t>isaacbermudez1@hotmail.com</t>
   </si>
   <si>
@@ -1016,6 +1016,9 @@
   </si>
   <si>
     <t>Nombre allison</t>
+  </si>
+  <si>
+    <t>ISAAC BERMUDEZ</t>
   </si>
 </sst>
 </file>
@@ -2939,6 +2942,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="38" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3017,9 +3023,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7819,7 +7822,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -8444,25 +8447,25 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="29" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="27" x14ac:dyDescent="0.5">
       <c r="B1" s="265" t="s">
         <v>177</v>
       </c>
@@ -8477,7 +8480,7 @@
       <c r="K1" s="265"/>
       <c r="L1" s="265"/>
     </row>
-    <row r="3" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="266" t="s">
         <v>65</v>
       </c>
@@ -8487,8 +8490,8 @@
       <c r="F3" s="266"/>
       <c r="G3" s="266"/>
     </row>
-    <row r="4" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="86"/>
       <c r="C5" s="87" t="s">
         <v>66</v>
@@ -8505,7 +8508,7 @@
       <c r="K5" s="268"/>
       <c r="L5" s="269"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="89" t="s">
         <v>69</v>
       </c>
@@ -8531,7 +8534,7 @@
       <c r="L6" s="117"/>
       <c r="M6" s="88"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="91" t="s">
         <v>73</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="94" t="s">
         <v>75</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="96" t="s">
         <v>80</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="97" t="s">
         <v>82</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="100" t="s">
         <v>84</v>
       </c>
@@ -8687,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="101" t="s">
         <v>85</v>
       </c>
@@ -8718,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="102" t="s">
         <v>86</v>
       </c>
@@ -8742,7 +8745,7 @@
       <c r="K13" s="112"/>
       <c r="L13" s="99"/>
     </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="103" t="s">
         <v>87</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="104" t="s">
         <v>88</v>
       </c>
@@ -8789,7 +8792,7 @@
       </c>
       <c r="E15" s="127"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="105" t="s">
         <v>89</v>
       </c>
@@ -8803,7 +8806,7 @@
       </c>
       <c r="E16" s="127"/>
     </row>
-    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="106" t="s">
         <v>90</v>
       </c>
@@ -8816,7 +8819,7 @@
       </c>
       <c r="E17" s="127"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="253" t="s">
         <v>105</v>
       </c>
@@ -8829,7 +8832,7 @@
       </c>
       <c r="E18" s="127"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="254" t="s">
         <v>91</v>
       </c>
@@ -8842,7 +8845,7 @@
       </c>
       <c r="E19" s="127"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="254" t="s">
         <v>92</v>
       </c>
@@ -8855,7 +8858,7 @@
       </c>
       <c r="E20" s="127"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="254" t="s">
         <v>93</v>
       </c>
@@ -8868,7 +8871,7 @@
       </c>
       <c r="E21" s="127"/>
     </row>
-    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="255" t="s">
         <v>94</v>
       </c>
@@ -8881,7 +8884,7 @@
       </c>
       <c r="E22" s="127"/>
     </row>
-    <row r="23" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="262" t="s">
         <v>195</v>
       </c>
@@ -8893,10 +8896,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="262" t="s">
         <v>196</v>
       </c>
@@ -8908,10 +8911,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="262" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="262" t="s">
         <v>197</v>
       </c>
@@ -8923,10 +8926,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="262" t="s">
         <v>198</v>
       </c>
@@ -8938,10 +8941,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="262" t="s">
         <v>199</v>
       </c>
@@ -8953,39 +8956,39 @@
         <v>10</v>
       </c>
       <c r="E27" s="262" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="113" t="s">
         <v>95</v>
       </c>
       <c r="C33" s="270" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D33" s="271"/>
       <c r="E33" s="271"/>
       <c r="F33" s="271"/>
       <c r="G33" s="272"/>
     </row>
-    <row r="34" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="110"/>
     </row>
-    <row r="35" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="113">
         <v>1</v>
       </c>
-      <c r="C35" s="300" t="s">
-        <v>201</v>
+      <c r="C35" s="273" t="s">
+        <v>200</v>
       </c>
       <c r="D35" s="271"/>
       <c r="E35" s="271"/>
       <c r="F35" s="271"/>
       <c r="G35" s="272"/>
     </row>
-    <row r="36" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="113" t="s">
         <v>97</v>
       </c>
@@ -9027,44 +9030,44 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="82"/>
-    <col min="17" max="17" width="10.6640625" style="119"/>
-    <col min="18" max="18" width="12.5" style="120" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="82"/>
+    <col min="17" max="17" width="10.7109375" style="119"/>
+    <col min="18" max="18" width="12.42578125" style="120" customWidth="1"/>
     <col min="19" max="23" width="8" style="120" customWidth="1"/>
-    <col min="24" max="25" width="10.6640625" style="121"/>
-    <col min="26" max="26" width="10.6640625" style="122"/>
-    <col min="27" max="27" width="11.5" style="122" customWidth="1"/>
-    <col min="28" max="31" width="10.6640625" style="121"/>
+    <col min="24" max="25" width="10.7109375" style="121"/>
+    <col min="26" max="26" width="10.7109375" style="122"/>
+    <col min="27" max="27" width="11.42578125" style="122" customWidth="1"/>
+    <col min="28" max="31" width="10.7109375" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="Q1" s="283" t="s">
+    <row r="1" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Q1" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="3:28" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q2" s="284"/>
+    <row r="2" spans="3:28" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="285"/>
     </row>
-    <row r="3" spans="3:28" ht="56.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:28" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="143"/>
       <c r="D3" s="144"/>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
       <c r="L3" s="144"/>
       <c r="M3" s="144"/>
       <c r="N3" s="145"/>
@@ -9074,7 +9077,7 @@
       </c>
       <c r="R3" s="261"/>
     </row>
-    <row r="4" spans="3:28" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="146"/>
       <c r="D4" s="115"/>
       <c r="E4" s="147" t="s">
@@ -9140,7 +9143,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C5" s="150">
         <v>1</v>
       </c>
@@ -9241,7 +9244,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="3:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="150">
         <f t="shared" ref="C6:C26" si="4">+C5+1</f>
         <v>2</v>
@@ -9343,7 +9346,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C7" s="150">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -9445,7 +9448,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C8" s="150">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9547,7 +9550,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="150">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -9649,7 +9652,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="150">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9751,7 +9754,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C11" s="150">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9853,7 +9856,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C12" s="150">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9955,7 +9958,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C13" s="150">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -10057,7 +10060,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C14" s="150">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -10159,7 +10162,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="150">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -10261,7 +10264,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="150">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -10364,7 +10367,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="150">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -10467,7 +10470,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="150">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -10570,7 +10573,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="150">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -10673,7 +10676,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="150">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -10776,7 +10779,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="150">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -10879,7 +10882,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="150">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -10982,7 +10985,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="150">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -11085,7 +11088,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="150">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -11188,7 +11191,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="3:28" s="121" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:28" s="121" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="150">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -11291,7 +11294,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:28" s="121" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:28" s="121" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="136">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -11394,23 +11397,23 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Q29"/>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Q30"/>
     </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Q31"/>
     </row>
-    <row r="32" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q32"/>
     </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q33"/>
       <c r="R33" s="82"/>
     </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q34" s="50"/>
     </row>
   </sheetData>
@@ -11481,30 +11484,30 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="7.5" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="2.5" customWidth="1"/>
-    <col min="18" max="18" width="2.5" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="27" width="14.5" customWidth="1"/>
-    <col min="28" max="28" width="2.5" customWidth="1"/>
-    <col min="30" max="30" width="18.83203125" style="207" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="207"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="2.42578125" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="207" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="207"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="173">
         <v>1</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="207"/>
       <c r="D2" s="207"/>
       <c r="E2" s="207"/>
@@ -11568,7 +11571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="209"/>
       <c r="C3" s="210"/>
       <c r="D3" s="210"/>
@@ -11602,36 +11605,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="38.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="214"/>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="293"/>
       <c r="P4" s="123"/>
       <c r="R4" s="214"/>
-      <c r="S4" s="293" t="s">
+      <c r="S4" s="294" t="s">
         <v>175</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="295"/>
+      <c r="T4" s="295"/>
+      <c r="U4" s="295"/>
+      <c r="V4" s="295"/>
+      <c r="W4" s="295"/>
+      <c r="X4" s="295"/>
+      <c r="Y4" s="295"/>
+      <c r="Z4" s="295"/>
+      <c r="AA4" s="296"/>
       <c r="AB4" s="123"/>
       <c r="AD4" s="207" t="s">
         <v>11</v>
@@ -11640,33 +11643,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="214"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="296" t="str">
+      <c r="D5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(D1,Aux!$F:$O,8,0)</f>
         <v>Grupo A</v>
       </c>
-      <c r="E5" s="297"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="296" t="str">
+      <c r="E5" s="298"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(G1,Aux!$F:$O,8,0)</f>
         <v>Grupo A</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="296" t="str">
+      <c r="H5" s="298"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(J1,Aux!$F:$O,8,0)</f>
         <v>Grupo B</v>
       </c>
-      <c r="K5" s="297"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="296" t="str">
+      <c r="K5" s="298"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="297" t="str">
         <f>"Grupo "&amp;VLOOKUP(M1,Aux!$F:$O,8,0)</f>
         <v>Grupo B</v>
       </c>
-      <c r="N5" s="297"/>
-      <c r="O5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="299"/>
       <c r="P5" s="123"/>
       <c r="R5" s="214"/>
       <c r="S5" s="215"/>
@@ -11703,10 +11706,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="214"/>
       <c r="C6" s="146"/>
-      <c r="D6" s="299" t="str">
+      <c r="D6" s="300" t="str">
         <f>VLOOKUP(D1,Aux!$F:$O,5,0)</f>
         <v>Argentina</v>
       </c>
@@ -11714,11 +11717,11 @@
         <f>VLOOKUP(D1,Aux!$F:$O,3,0)</f>
         <v>45463.833333333336</v>
       </c>
-      <c r="F6" s="299" t="str">
+      <c r="F6" s="300" t="str">
         <f>VLOOKUP(D1,Aux!$F:$O,6,0)</f>
         <v>Canadá</v>
       </c>
-      <c r="G6" s="299" t="str">
+      <c r="G6" s="300" t="str">
         <f>VLOOKUP(G1,Aux!$F:$O,5,0)</f>
         <v>Perú</v>
       </c>
@@ -11726,11 +11729,11 @@
         <f>VLOOKUP(G1,Aux!$F:$O,3,0)</f>
         <v>45464.791666666664</v>
       </c>
-      <c r="I6" s="299" t="str">
+      <c r="I6" s="300" t="str">
         <f>VLOOKUP(G1,Aux!$F:$O,6,0)</f>
         <v>Chile</v>
       </c>
-      <c r="J6" s="299" t="str">
+      <c r="J6" s="300" t="str">
         <f>VLOOKUP(J1,Aux!$F:$O,5,0)</f>
         <v>Ecuador</v>
       </c>
@@ -11738,11 +11741,11 @@
         <f>VLOOKUP(J1,Aux!$F:$O,3,0)</f>
         <v>45465.625</v>
       </c>
-      <c r="L6" s="299" t="str">
+      <c r="L6" s="300" t="str">
         <f>VLOOKUP(J1,Aux!$F:$O,6,0)</f>
         <v>Venezuela</v>
       </c>
-      <c r="M6" s="299" t="str">
+      <c r="M6" s="300" t="str">
         <f>VLOOKUP(M1,Aux!$F:$O,5,0)</f>
         <v>México</v>
       </c>
@@ -11750,7 +11753,7 @@
         <f>VLOOKUP(M1,Aux!$F:$O,3,0)</f>
         <v>45465.833333333336</v>
       </c>
-      <c r="O6" s="299" t="str">
+      <c r="O6" s="300" t="str">
         <f>VLOOKUP(M1,Aux!$F:$O,6,0)</f>
         <v>Jamaica</v>
       </c>
@@ -11796,33 +11799,33 @@
       <c r="AD6"/>
       <c r="AE6"/>
     </row>
-    <row r="7" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="214"/>
       <c r="C7" s="146"/>
-      <c r="D7" s="299"/>
+      <c r="D7" s="300"/>
       <c r="E7" s="220">
         <f>+E6</f>
         <v>45463.833333333336</v>
       </c>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
       <c r="H7" s="220">
         <f>+H6</f>
         <v>45464.791666666664</v>
       </c>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
       <c r="K7" s="220">
         <f>+K6</f>
         <v>45465.625</v>
       </c>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
       <c r="N7" s="220">
         <f>+N6</f>
         <v>45465.833333333336</v>
       </c>
-      <c r="O7" s="299"/>
+      <c r="O7" s="300"/>
       <c r="P7" s="123"/>
       <c r="R7" s="214"/>
       <c r="S7" s="218" t="str">
@@ -11865,7 +11868,7 @@
       <c r="AD7"/>
       <c r="AE7"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="214"/>
       <c r="C8" s="112" t="s">
         <v>99</v>
@@ -11960,7 +11963,7 @@
       <c r="AD8"/>
       <c r="AE8"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="214"/>
       <c r="P9" s="123"/>
       <c r="R9" s="214"/>
@@ -12004,7 +12007,7 @@
       <c r="AD9"/>
       <c r="AE9"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="214"/>
       <c r="C10" s="224" t="str">
         <f>IF(ClasificaciónPorra!D5=0,"",ClasificaciónPorra!D5)</f>
@@ -12100,7 +12103,7 @@
       <c r="AD10"/>
       <c r="AE10"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="214"/>
       <c r="C11" s="229" t="str">
         <f>IF(ClasificaciónPorra!D6=0,"",ClasificaciónPorra!D6)</f>
@@ -12196,7 +12199,7 @@
       <c r="AD11"/>
       <c r="AE11"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="214"/>
       <c r="C12" s="229" t="str">
         <f>IF(ClasificaciónPorra!D7=0,"",ClasificaciónPorra!D7)</f>
@@ -12292,7 +12295,7 @@
       <c r="AD12"/>
       <c r="AE12"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="214"/>
       <c r="C13" s="229" t="str">
         <f>IF(ClasificaciónPorra!D8=0,"",ClasificaciónPorra!D8)</f>
@@ -12388,7 +12391,7 @@
       <c r="AD13"/>
       <c r="AE13"/>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="214"/>
       <c r="C14" s="229" t="str">
         <f>IF(ClasificaciónPorra!D9=0,"",ClasificaciónPorra!D9)</f>
@@ -12484,7 +12487,7 @@
       <c r="AD14"/>
       <c r="AE14"/>
     </row>
-    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="214"/>
       <c r="C15" s="229" t="str">
         <f>IF(ClasificaciónPorra!D10=0,"",ClasificaciónPorra!D10)</f>
@@ -12580,7 +12583,7 @@
       <c r="AD15"/>
       <c r="AE15"/>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="214"/>
       <c r="C16" s="229" t="str">
         <f>IF(ClasificaciónPorra!D11=0,"",ClasificaciónPorra!D11)</f>
@@ -12676,7 +12679,7 @@
       <c r="AD16"/>
       <c r="AE16"/>
     </row>
-    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="214"/>
       <c r="C17" s="229" t="str">
         <f>IF(ClasificaciónPorra!D12=0,"",ClasificaciónPorra!D12)</f>
@@ -12772,7 +12775,7 @@
       <c r="AD17"/>
       <c r="AE17"/>
     </row>
-    <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="214"/>
       <c r="C18" s="229" t="str">
         <f>IF(ClasificaciónPorra!D13=0,"",ClasificaciónPorra!D13)</f>
@@ -12868,7 +12871,7 @@
       <c r="AD18"/>
       <c r="AE18"/>
     </row>
-    <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="214"/>
       <c r="C19" s="229" t="str">
         <f>IF(ClasificaciónPorra!D14=0,"",ClasificaciónPorra!D14)</f>
@@ -12962,7 +12965,7 @@
       </c>
       <c r="AB19" s="123"/>
     </row>
-    <row r="20" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="214"/>
       <c r="C20" s="229" t="str">
         <f>IF(ClasificaciónPorra!D15=0,"",ClasificaciónPorra!D15)</f>
@@ -13056,7 +13059,7 @@
       </c>
       <c r="AB20" s="123"/>
     </row>
-    <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="214"/>
       <c r="C21" s="229" t="str">
         <f>IF(ClasificaciónPorra!D16=0,"",ClasificaciónPorra!D16)</f>
@@ -13150,7 +13153,7 @@
       </c>
       <c r="AB21" s="123"/>
     </row>
-    <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="214"/>
       <c r="C22" s="229" t="str">
         <f>IF(ClasificaciónPorra!D17=0,"",ClasificaciónPorra!D17)</f>
@@ -13244,7 +13247,7 @@
       </c>
       <c r="AB22" s="123"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="214"/>
       <c r="C23" s="229" t="str">
         <f>IF(ClasificaciónPorra!D18=0,"",ClasificaciónPorra!D18)</f>
@@ -13338,7 +13341,7 @@
       </c>
       <c r="AB23" s="123"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="214"/>
       <c r="C24" s="229" t="str">
         <f>IF(ClasificaciónPorra!D19=0,"",ClasificaciónPorra!D19)</f>
@@ -13432,7 +13435,7 @@
       </c>
       <c r="AB24" s="123"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="214"/>
       <c r="C25" s="229" t="str">
         <f>IF(ClasificaciónPorra!D20=0,"",ClasificaciónPorra!D20)</f>
@@ -13526,7 +13529,7 @@
       </c>
       <c r="AB25" s="123"/>
     </row>
-    <row r="26" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="214"/>
       <c r="C26" s="229" t="str">
         <f>IF(ClasificaciónPorra!D21=0,"",ClasificaciónPorra!D21)</f>
@@ -13593,7 +13596,7 @@
       <c r="AA26" s="238"/>
       <c r="AB26" s="99"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="214"/>
       <c r="C27" s="229" t="str">
         <f>IF(ClasificaciónPorra!D22=0,"",ClasificaciónPorra!D22)</f>
@@ -13649,7 +13652,7 @@
       </c>
       <c r="P27" s="123"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="214"/>
       <c r="C28" s="229" t="str">
         <f>IF(ClasificaciónPorra!D23=0,"",ClasificaciónPorra!D23)</f>
@@ -13705,7 +13708,7 @@
       </c>
       <c r="P28" s="123"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="214"/>
       <c r="C29" s="239" t="str">
         <f>IF(ClasificaciónPorra!D24=0,"",ClasificaciónPorra!D24)</f>
@@ -13761,7 +13764,7 @@
       </c>
       <c r="P29" s="123"/>
     </row>
-    <row r="30" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="237"/>
       <c r="C30" s="238"/>
       <c r="D30" s="238"/>
@@ -13778,26 +13781,26 @@
       <c r="O30" s="238"/>
       <c r="P30" s="99"/>
     </row>
-    <row r="32" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q32" s="259"/>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q33" s="283" t="s">
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="17:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q34" s="284"/>
+    <row r="34" spans="17:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="285"/>
     </row>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q35" s="273" t="s">
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="17:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="274"/>
+    <row r="36" spans="17:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q36" s="275"/>
     </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q37" s="50"/>
     </row>
   </sheetData>
@@ -13924,22 +13927,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="78" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="85" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="88" max="90" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="100" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="119" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="194" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="195" max="212" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="78" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="85" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="100" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="119" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="194" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="212" width="9.28515625" customWidth="1"/>
     <col min="232" max="279" width="5" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -13955,16 +13958,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="5" max="76" width="6" customWidth="1"/>
-    <col min="81" max="95" width="10.6640625" customWidth="1"/>
+    <col min="81" max="95" width="10.7109375" customWidth="1"/>
     <col min="96" max="119" width="6" customWidth="1"/>
     <col min="139" max="161" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>57</v>
       </c>
@@ -14410,7 +14413,7 @@
         <v>Final</v>
       </c>
     </row>
-    <row r="2" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>167</v>
       </c>
@@ -14602,7 +14605,7 @@
       <c r="DN2" s="191"/>
       <c r="DO2" s="191"/>
     </row>
-    <row r="3" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B3" s="85" t="s">
         <v>99</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B4" s="85" t="s">
         <v>168</v>
       </c>
@@ -15417,7 +15420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B5" s="85" t="s">
         <v>104</v>
       </c>
@@ -15882,7 +15885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B6" s="141" t="s">
         <v>95</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>+TotalApuestas!B2</f>
         <v>0</v>
@@ -16359,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>+TotalApuestas!B3</f>
         <v>0</v>
@@ -16825,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>+TotalApuestas!B4</f>
         <v>0</v>
@@ -17291,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>+TotalApuestas!B5</f>
         <v>0</v>
@@ -17757,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>+TotalApuestas!B6</f>
         <v>0</v>
@@ -18223,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>+TotalApuestas!B7</f>
         <v>0</v>
@@ -18689,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>+TotalApuestas!B8</f>
         <v>0</v>
@@ -19155,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>+TotalApuestas!B9</f>
         <v>0</v>
@@ -19621,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>+TotalApuestas!B10</f>
         <v>0</v>
@@ -20087,7 +20090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>+TotalApuestas!B11</f>
         <v>0</v>
@@ -20553,7 +20556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>+TotalApuestas!B12</f>
         <v>0</v>
@@ -21019,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>+TotalApuestas!B13</f>
         <v>0</v>
@@ -21485,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>+TotalApuestas!B14</f>
         <v>0</v>
@@ -21951,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>+TotalApuestas!B15</f>
         <v>0</v>
@@ -22417,7 +22420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>+TotalApuestas!B16</f>
         <v>0</v>
@@ -22883,7 +22886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>+TotalApuestas!B17</f>
         <v>0</v>
@@ -23349,7 +23352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>+TotalApuestas!B18</f>
         <v>0</v>
@@ -23815,7 +23818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>+TotalApuestas!B19</f>
         <v>0</v>
@@ -24281,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>+TotalApuestas!B20</f>
         <v>0</v>
@@ -24747,7 +24750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>+TotalApuestas!B21</f>
         <v>0</v>
@@ -25213,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>+TotalApuestas!B22</f>
         <v>0</v>
@@ -25679,7 +25682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>+TotalApuestas!B23</f>
         <v>0</v>
@@ -26145,7 +26148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>+TotalApuestas!B24</f>
         <v>0</v>
@@ -26611,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>+TotalApuestas!B25</f>
         <v>0</v>
@@ -27077,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>+TotalApuestas!B26</f>
         <v>0</v>
@@ -27543,7 +27546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>+TotalApuestas!B27</f>
         <v>0</v>
@@ -28009,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>+TotalApuestas!B28</f>
         <v>0</v>
@@ -36876,16 +36879,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="119" width="6" customWidth="1"/>
-    <col min="120" max="220" width="5.6640625" customWidth="1"/>
+    <col min="120" max="220" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:119" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:119" x14ac:dyDescent="0.25">
       <c r="B1" s="85" t="str">
         <f>Normas!C33</f>
-        <v>Nombre ISAAC BERMUDEZ</v>
+        <v>ISAAC BERMUDEZ</v>
       </c>
       <c r="C1" s="118" t="str">
         <f>Normas!C35</f>
@@ -37370,40 +37373,40 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="50" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="50" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="50" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="50" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="50" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="50" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="50" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="50" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="50" customWidth="1"/>
     <col min="19" max="25" width="4" style="50" customWidth="1"/>
     <col min="26" max="26" width="6" style="54" customWidth="1"/>
     <col min="27" max="29" width="5" style="53" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="53" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="53" customWidth="1"/>
     <col min="31" max="37" width="5" style="53" customWidth="1"/>
-    <col min="38" max="40" width="8.5" style="53" customWidth="1"/>
+    <col min="38" max="40" width="8.42578125" style="53" customWidth="1"/>
     <col min="41" max="42" width="5" style="53" customWidth="1"/>
-    <col min="43" max="43" width="7.6640625" style="54" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="54"/>
+    <col min="43" max="43" width="7.7109375" style="54" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" style="54"/>
     <col min="45" max="45" width="15" style="50" customWidth="1"/>
-    <col min="46" max="16384" width="14.5" style="50"/>
+    <col min="46" max="16384" width="14.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="54" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="49"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -37421,9 +37424,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -37449,7 +37452,7 @@
       <c r="AT1" s="50"/>
       <c r="AU1" s="50"/>
     </row>
-    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -37495,7 +37498,7 @@
       <c r="AT2" s="50"/>
       <c r="AU2" s="50"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -37543,7 +37546,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -37591,7 +37594,7 @@
       <c r="AT4" s="49"/>
       <c r="AU4" s="49"/>
     </row>
-    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="58"/>
       <c r="D5" s="50"/>
@@ -37653,7 +37656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="183" t="s">
         <v>34</v>
       </c>
@@ -37663,33 +37666,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -37713,7 +37716,7 @@
       <c r="AT6" s="245"/>
       <c r="AU6" s="245"/>
     </row>
-    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -37803,7 +37806,7 @@
         <v>Canadá</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="162" t="str" cm="1">
         <f t="array" ref="B8:B20">_xlfn.REDUCE("",_xlfn.TAKE(_xlfn._xlws.FILTER(Aux!F:M,Aux!M:M=AD5),,1),_xlfn.LAMBDA(_xlpm.t,_xlpm.p,_xlfn.VSTACK(_xlpm.t,_xlpm.p,"")))</f>
         <v/>
@@ -37854,7 +37857,7 @@
       <c r="AT8" s="250"/>
       <c r="AU8" s="250"/>
     </row>
-    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -37902,9 +37905,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
         <v>Argentina</v>
       </c>
-      <c r="Q9" s="157" t="str">
+      <c r="Q9" s="157" t="e" vm="1">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
@@ -38020,7 +38023,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <v/>
       </c>
@@ -38070,7 +38073,7 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
     </row>
-    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>2</v>
       </c>
@@ -38118,9 +38121,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
         <v>Canadá</v>
       </c>
-      <c r="Q11" s="157" t="str">
+      <c r="Q11" s="157" t="e" vm="2">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
@@ -38236,7 +38239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <v/>
       </c>
@@ -38286,7 +38289,7 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
     </row>
-    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>9</v>
       </c>
@@ -38334,9 +38337,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
         <v>Chile</v>
       </c>
-      <c r="Q13" s="157" t="str">
+      <c r="Q13" s="157" t="e" vm="4">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
@@ -38452,7 +38455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <v/>
       </c>
@@ -38502,7 +38505,7 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
     </row>
-    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>10</v>
       </c>
@@ -38550,9 +38553,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
         <v>Perú</v>
       </c>
-      <c r="Q15" s="157" t="str">
+      <c r="Q15" s="157" t="e" vm="3">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="158"/>
       <c r="S15" s="159">
@@ -38668,7 +38671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <v/>
       </c>
@@ -38718,7 +38721,7 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="53"/>
     </row>
-    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>17</v>
       </c>
@@ -38762,16 +38765,16 @@
         <v>Hard Rock Stadium - MIAMI, FL</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -38793,7 +38796,7 @@
       <c r="AT17" s="53"/>
       <c r="AU17" s="53"/>
     </row>
-    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <v/>
       </c>
@@ -38821,7 +38824,7 @@
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
     </row>
-    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>18</v>
       </c>
@@ -38876,7 +38879,7 @@
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
     </row>
-    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <v/>
       </c>
@@ -38904,24 +38907,24 @@
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
     </row>
-    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="259"/>
     </row>
-    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="283" t="s">
+    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="284"/>
+    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="285"/>
     </row>
-    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="273" t="s">
+    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="274"/>
+    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -38986,40 +38989,40 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="50" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="50" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="50" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="50" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="50" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="50" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="50" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="50" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="50" customWidth="1"/>
     <col min="19" max="25" width="4" style="50" customWidth="1"/>
     <col min="26" max="26" width="6" style="54" customWidth="1"/>
     <col min="27" max="29" width="5" style="53" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="53" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="53" customWidth="1"/>
     <col min="31" max="37" width="5" style="53" customWidth="1"/>
-    <col min="38" max="40" width="8.5" style="53" customWidth="1"/>
+    <col min="38" max="40" width="8.42578125" style="53" customWidth="1"/>
     <col min="41" max="42" width="5" style="53" customWidth="1"/>
-    <col min="43" max="43" width="7.6640625" style="54" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="54"/>
+    <col min="43" max="43" width="7.7109375" style="54" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" style="54"/>
     <col min="45" max="45" width="15" style="50" customWidth="1"/>
-    <col min="46" max="16384" width="14.5" style="50"/>
+    <col min="46" max="16384" width="14.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="54" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="49"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -39037,9 +39040,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -39065,7 +39068,7 @@
       <c r="AT1" s="50"/>
       <c r="AU1" s="50"/>
     </row>
-    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -39111,7 +39114,7 @@
       <c r="AT2" s="50"/>
       <c r="AU2" s="50"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -39159,7 +39162,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -39207,7 +39210,7 @@
       <c r="AT4" s="49"/>
       <c r="AU4" s="49"/>
     </row>
-    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="58"/>
       <c r="D5" s="50"/>
@@ -39269,7 +39272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="183" t="s">
         <v>34</v>
       </c>
@@ -39279,33 +39282,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -39329,7 +39332,7 @@
       <c r="AT6" s="245"/>
       <c r="AU6" s="245"/>
     </row>
-    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -39419,7 +39422,7 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="162" t="str" cm="1">
         <f t="array" ref="B8:B20">_xlfn.REDUCE("",_xlfn.TAKE(_xlfn._xlws.FILTER(Aux!F:M,Aux!M:M=AD5),,1),_xlfn.LAMBDA(_xlpm.t,_xlpm.p,_xlfn.VSTACK(_xlpm.t,_xlpm.p,"")))</f>
         <v/>
@@ -39470,7 +39473,7 @@
       <c r="AT8" s="250"/>
       <c r="AU8" s="250"/>
     </row>
-    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>3</v>
       </c>
@@ -39518,9 +39521,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
         <v>Venezuela</v>
       </c>
-      <c r="Q9" s="157" t="str">
+      <c r="Q9" s="157" t="e" vm="6">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
@@ -39636,7 +39639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <v/>
       </c>
@@ -39686,7 +39689,7 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
     </row>
-    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>4</v>
       </c>
@@ -39734,9 +39737,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
         <v>Ecuador</v>
       </c>
-      <c r="Q11" s="157" t="str">
+      <c r="Q11" s="157" t="e" vm="5">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
@@ -39852,7 +39855,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <v/>
       </c>
@@ -39902,7 +39905,7 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
     </row>
-    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>11</v>
       </c>
@@ -39950,9 +39953,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
         <v>México</v>
       </c>
-      <c r="Q13" s="157" t="str">
+      <c r="Q13" s="157" t="e" vm="7">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
@@ -40068,7 +40071,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <v/>
       </c>
@@ -40118,7 +40121,7 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
     </row>
-    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -40166,9 +40169,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
         <v>Jamaica</v>
       </c>
-      <c r="Q15" s="157" t="str">
+      <c r="Q15" s="157" t="e" vm="8">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="158"/>
       <c r="S15" s="159">
@@ -40284,7 +40287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <v/>
       </c>
@@ -40334,7 +40337,7 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="53"/>
     </row>
-    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>19</v>
       </c>
@@ -40378,16 +40381,16 @@
         <v>State Farm Stadium - GLENDALE, AZ</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -40409,7 +40412,7 @@
       <c r="AT17" s="53"/>
       <c r="AU17" s="53"/>
     </row>
-    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <v/>
       </c>
@@ -40437,7 +40440,7 @@
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
     </row>
-    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>20</v>
       </c>
@@ -40492,7 +40495,7 @@
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
     </row>
-    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <v/>
       </c>
@@ -40520,24 +40523,24 @@
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
     </row>
-    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="259"/>
     </row>
-    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="283" t="s">
+    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="284"/>
+    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="285"/>
     </row>
-    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="273" t="s">
+    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="274"/>
+    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -40602,40 +40605,40 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="50" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="50" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="50" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="50" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="50" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="50" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="50" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="50" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="50" customWidth="1"/>
     <col min="19" max="25" width="4" style="50" customWidth="1"/>
     <col min="26" max="26" width="6" style="54" customWidth="1"/>
     <col min="27" max="29" width="5" style="53" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="53" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="53" customWidth="1"/>
     <col min="31" max="37" width="5" style="53" customWidth="1"/>
-    <col min="38" max="40" width="8.5" style="53" customWidth="1"/>
+    <col min="38" max="40" width="8.42578125" style="53" customWidth="1"/>
     <col min="41" max="42" width="5" style="53" customWidth="1"/>
-    <col min="43" max="43" width="7.6640625" style="54" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="54"/>
+    <col min="43" max="43" width="7.7109375" style="54" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" style="54"/>
     <col min="45" max="45" width="15" style="50" customWidth="1"/>
-    <col min="46" max="16384" width="14.5" style="50"/>
+    <col min="46" max="16384" width="14.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="54" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="49"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -40653,9 +40656,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -40681,7 +40684,7 @@
       <c r="AT1" s="50"/>
       <c r="AU1" s="50"/>
     </row>
-    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -40727,7 +40730,7 @@
       <c r="AT2" s="50"/>
       <c r="AU2" s="50"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -40775,7 +40778,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -40823,7 +40826,7 @@
       <c r="AT4" s="49"/>
       <c r="AU4" s="49"/>
     </row>
-    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="58"/>
       <c r="D5" s="50"/>
@@ -40885,7 +40888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="183" t="s">
         <v>34</v>
       </c>
@@ -40895,33 +40898,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -40945,7 +40948,7 @@
       <c r="AT6" s="245"/>
       <c r="AU6" s="245"/>
     </row>
-    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -41035,7 +41038,7 @@
         <v>Bolivia</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="162" t="str" cm="1">
         <f t="array" ref="B8:B20">_xlfn.REDUCE("",_xlfn.TAKE(_xlfn._xlws.FILTER(Aux!F:M,Aux!M:M=AD5),,1),_xlfn.LAMBDA(_xlpm.t,_xlpm.p,_xlfn.VSTACK(_xlpm.t,_xlpm.p,"")))</f>
         <v/>
@@ -41086,7 +41089,7 @@
       <c r="AT8" s="250"/>
       <c r="AU8" s="250"/>
     </row>
-    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>5</v>
       </c>
@@ -41134,9 +41137,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
         <v>Uruguay</v>
       </c>
-      <c r="Q9" s="157" t="str">
+      <c r="Q9" s="157" t="e" vm="11">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
@@ -41252,7 +41255,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <v/>
       </c>
@@ -41302,7 +41305,7 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
     </row>
-    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>6</v>
       </c>
@@ -41350,9 +41353,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
         <v>Estados Unidos</v>
       </c>
-      <c r="Q11" s="157" t="str">
+      <c r="Q11" s="157" t="e" vm="9">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
@@ -41468,7 +41471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <v/>
       </c>
@@ -41518,7 +41521,7 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
     </row>
-    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>13</v>
       </c>
@@ -41566,9 +41569,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
         <v>Panamá</v>
       </c>
-      <c r="Q13" s="157" t="str">
+      <c r="Q13" s="157" t="e" vm="12">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
@@ -41684,7 +41687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <v/>
       </c>
@@ -41734,7 +41737,7 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
     </row>
-    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>14</v>
       </c>
@@ -41782,9 +41785,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
         <v>Bolivia</v>
       </c>
-      <c r="Q15" s="157" t="str">
+      <c r="Q15" s="157" t="e" vm="10">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="158"/>
       <c r="S15" s="159">
@@ -41900,7 +41903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <v/>
       </c>
@@ -41950,7 +41953,7 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="53"/>
     </row>
-    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>21</v>
       </c>
@@ -41994,16 +41997,16 @@
         <v>GEHA Field at Arrowhead - KANSAS CITY, MO</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -42025,7 +42028,7 @@
       <c r="AT17" s="53"/>
       <c r="AU17" s="53"/>
     </row>
-    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <v/>
       </c>
@@ -42053,7 +42056,7 @@
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
     </row>
-    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>22</v>
       </c>
@@ -42108,7 +42111,7 @@
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
     </row>
-    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <v/>
       </c>
@@ -42136,24 +42139,24 @@
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
     </row>
-    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="259"/>
     </row>
-    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="283" t="s">
+    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="284"/>
+    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="285"/>
     </row>
-    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="273" t="s">
+    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="274"/>
+    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -42218,40 +42221,40 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="50" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="50" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="50" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="50" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="50" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="50" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="50" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="50" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="50" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="50" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="50" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" style="50" customWidth="1"/>
     <col min="19" max="25" width="4" style="50" customWidth="1"/>
     <col min="26" max="26" width="6" style="54" customWidth="1"/>
     <col min="27" max="29" width="5" style="53" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="53" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="53" customWidth="1"/>
     <col min="31" max="37" width="5" style="53" customWidth="1"/>
-    <col min="38" max="40" width="8.5" style="53" customWidth="1"/>
+    <col min="38" max="40" width="8.42578125" style="53" customWidth="1"/>
     <col min="41" max="42" width="5" style="53" customWidth="1"/>
-    <col min="43" max="43" width="7.6640625" style="54" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="54"/>
+    <col min="43" max="43" width="7.7109375" style="54" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" style="54"/>
     <col min="45" max="45" width="15" style="50" customWidth="1"/>
-    <col min="46" max="16384" width="14.5" style="50"/>
+    <col min="46" max="16384" width="14.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="54" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="54" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="49"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
@@ -42269,9 +42272,9 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
       <c r="V1" s="52"/>
       <c r="W1" s="51"/>
       <c r="X1" s="51"/>
@@ -42297,7 +42300,7 @@
       <c r="AT1" s="50"/>
       <c r="AU1" s="50"/>
     </row>
-    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="54" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -42343,7 +42346,7 @@
       <c r="AT2" s="50"/>
       <c r="AU2" s="50"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -42391,7 +42394,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -42439,7 +42442,7 @@
       <c r="AT4" s="49"/>
       <c r="AU4" s="49"/>
     </row>
-    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="49"/>
       <c r="C5" s="58"/>
       <c r="D5" s="50"/>
@@ -42501,7 +42504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="183" t="s">
         <v>34</v>
       </c>
@@ -42511,33 +42514,33 @@
       <c r="D6" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="282"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="185" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="61"/>
-      <c r="P6" s="276" t="s">
+      <c r="P6" s="277" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="277"/>
-      <c r="R6" s="277"/>
-      <c r="S6" s="278"/>
-      <c r="T6" s="278"/>
-      <c r="U6" s="278"/>
-      <c r="V6" s="278"/>
-      <c r="W6" s="278"/>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="279"/>
+      <c r="Q6" s="278"/>
+      <c r="R6" s="278"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="280"/>
       <c r="Z6" s="60"/>
       <c r="AA6" s="59"/>
       <c r="AB6" s="245"/>
@@ -42561,7 +42564,7 @@
       <c r="AT6" s="245"/>
       <c r="AU6" s="245"/>
     </row>
-    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="54" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
@@ -42651,7 +42654,7 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="162" t="str" cm="1">
         <f t="array" ref="B8:B20">_xlfn.REDUCE("",_xlfn.TAKE(_xlfn._xlws.FILTER(Aux!F:M,Aux!M:M=AD5),,1),_xlfn.LAMBDA(_xlpm.t,_xlpm.p,_xlfn.VSTACK(_xlpm.t,_xlpm.p,"")))</f>
         <v/>
@@ -42702,7 +42705,7 @@
       <c r="AT8" s="250"/>
       <c r="AU8" s="250"/>
     </row>
-    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>7</v>
       </c>
@@ -42750,9 +42753,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(1,$AO$9:$AO$15,0))</f>
         <v>Brasil</v>
       </c>
-      <c r="Q9" s="157" t="str">
+      <c r="Q9" s="157" t="e" vm="15">
         <f>IFERROR(VLOOKUP(P9,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="158"/>
       <c r="S9" s="159">
@@ -42868,7 +42871,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <v/>
       </c>
@@ -42918,7 +42921,7 @@
       <c r="AT10" s="53"/>
       <c r="AU10" s="53"/>
     </row>
-    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>8</v>
       </c>
@@ -42966,9 +42969,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(2,$AO$9:$AO$15,0))</f>
         <v>Colombia</v>
       </c>
-      <c r="Q11" s="157" t="str">
+      <c r="Q11" s="157" t="e" vm="13">
         <f>IFERROR(VLOOKUP(P11,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R11" s="158"/>
       <c r="S11" s="159">
@@ -43084,7 +43087,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <v/>
       </c>
@@ -43134,7 +43137,7 @@
       <c r="AT12" s="53"/>
       <c r="AU12" s="53"/>
     </row>
-    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>15</v>
       </c>
@@ -43182,9 +43185,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(3,$AO$9:$AO$15,0))</f>
         <v>Paraguay</v>
       </c>
-      <c r="Q13" s="157" t="str">
+      <c r="Q13" s="157" t="e" vm="14">
         <f>IFERROR(VLOOKUP(P13,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R13" s="158"/>
       <c r="S13" s="159">
@@ -43300,7 +43303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <v/>
       </c>
@@ -43350,7 +43353,7 @@
       <c r="AT14" s="53"/>
       <c r="AU14" s="53"/>
     </row>
-    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>16</v>
       </c>
@@ -43398,9 +43401,9 @@
         <f>+INDEX($AD$9:$AD$16,MATCH(4,$AO$9:$AO$15,0))</f>
         <v>Costa Rica</v>
       </c>
-      <c r="Q15" s="157" t="str">
+      <c r="Q15" s="157" t="e" vm="16">
         <f>IFERROR(VLOOKUP(P15,Aux!A:C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="158"/>
       <c r="S15" s="159">
@@ -43516,7 +43519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <v/>
       </c>
@@ -43566,7 +43569,7 @@
       <c r="AT16" s="53"/>
       <c r="AU16" s="53"/>
     </row>
-    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>23</v>
       </c>
@@ -43610,16 +43613,16 @@
         <v>Levi's Stadium - SANTA CLARA, CA</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="280"/>
-      <c r="Q17" s="280"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="280"/>
-      <c r="T17" s="280"/>
-      <c r="U17" s="280"/>
-      <c r="V17" s="280"/>
-      <c r="W17" s="280"/>
-      <c r="X17" s="280"/>
-      <c r="Y17" s="280"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="281"/>
+      <c r="X17" s="281"/>
+      <c r="Y17" s="281"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
@@ -43641,7 +43644,7 @@
       <c r="AT17" s="53"/>
       <c r="AU17" s="53"/>
     </row>
-    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <v/>
       </c>
@@ -43669,7 +43672,7 @@
       <c r="X18" s="50"/>
       <c r="Y18" s="50"/>
     </row>
-    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" s="54" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>24</v>
       </c>
@@ -43724,7 +43727,7 @@
       <c r="X19" s="50"/>
       <c r="Y19" s="50"/>
     </row>
-    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" s="54" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <v/>
       </c>
@@ -43752,24 +43755,24 @@
       <c r="X20" s="50"/>
       <c r="Y20" s="50"/>
     </row>
-    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="259"/>
     </row>
-    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="283" t="s">
+    <row r="23" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="284"/>
+    <row r="24" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="285"/>
     </row>
-    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="273" t="s">
+    <row r="25" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="274"/>
+    <row r="26" spans="2:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43834,30 +43837,30 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
-    <col min="16" max="16" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="37.5" customWidth="1"/>
-    <col min="18" max="18" width="0.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="27" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="18" max="18" width="0.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="27" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="73" t="s">
         <v>34</v>
       </c>
@@ -43869,15 +43872,15 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
@@ -43887,7 +43890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
@@ -43904,7 +43907,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
         <v>50</v>
       </c>
@@ -43923,9 +43926,9 @@
         <v>45477.875000000007</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="180" t="str">
+      <c r="G9" s="180" t="e" vm="1">
         <f ca="1">IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDIRECT(RIGHT(A9,1)&amp;"!P"&amp;7+LEFT(A9,1)*2)</f>
@@ -43946,9 +43949,9 @@
         <f t="array" aca="1" ref="N9" ca="1">INDIRECT(RIGHT(B9,1)&amp;"!P"&amp;7+LEFT(B9,1)*2)</f>
         <v>Ecuador</v>
       </c>
-      <c r="O9" s="180" t="str">
+      <c r="O9" s="180" t="e" vm="5">
         <f ca="1">IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="175" t="str">
@@ -43960,7 +43963,7 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -43986,7 +43989,7 @@
       <c r="Q10" s="175"/>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -44004,7 +44007,7 @@
       <c r="Q11" s="175"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="171" t="s">
         <v>54</v>
       </c>
@@ -44024,9 +44027,9 @@
         <v>45478.875000000007</v>
       </c>
       <c r="F12" s="180"/>
-      <c r="G12" s="180" t="str">
+      <c r="G12" s="180" t="e" vm="6">
         <f ca="1">IFERROR(VLOOKUP(H12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H12" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDIRECT(RIGHT(A12,1)&amp;"!P"&amp;7+LEFT(A12,1)*2)</f>
@@ -44047,9 +44050,9 @@
         <f t="array" aca="1" ref="N12" ca="1">INDIRECT(RIGHT(B12,1)&amp;"!P"&amp;7+LEFT(B12,1)*2)</f>
         <v>Canadá</v>
       </c>
-      <c r="O12" s="180" t="str">
+      <c r="O12" s="180" t="e" vm="2">
         <f ca="1">IFERROR(VLOOKUP(N12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="175" t="str">
@@ -44061,7 +44064,7 @@
         <v>Venezuela</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -44087,7 +44090,7 @@
       <c r="Q13" s="175"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -44105,7 +44108,7 @@
       <c r="Q14" s="175"/>
       <c r="S14" s="24"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="171" t="s">
         <v>56</v>
       </c>
@@ -44125,9 +44128,9 @@
         <v>45480.75</v>
       </c>
       <c r="F15" s="180"/>
-      <c r="G15" s="180" t="str">
+      <c r="G15" s="180" t="e" vm="15">
         <f ca="1">IFERROR(VLOOKUP(H15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H15" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDIRECT(RIGHT(A15,1)&amp;"!P"&amp;7+LEFT(A15,1)*2)</f>
@@ -44148,9 +44151,9 @@
         <f t="array" aca="1" ref="N15" ca="1">INDIRECT(RIGHT(B15,1)&amp;"!P"&amp;7+LEFT(B15,1)*2)</f>
         <v>Estados Unidos</v>
       </c>
-      <c r="O15" s="180" t="str">
+      <c r="O15" s="180" t="e" vm="9">
         <f ca="1">IFERROR(VLOOKUP(N15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="175" t="str">
@@ -44162,7 +44165,7 @@
         <v>Brasil</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -44184,7 +44187,7 @@
       <c r="Q16" s="175"/>
       <c r="S16" s="24"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -44202,7 +44205,7 @@
       <c r="Q17" s="175"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="171" t="s">
         <v>52</v>
       </c>
@@ -44222,9 +44225,9 @@
         <v>45480.875</v>
       </c>
       <c r="F18" s="180"/>
-      <c r="G18" s="180" t="str">
+      <c r="G18" s="180" t="e" vm="11">
         <f ca="1">IFERROR(VLOOKUP(H18,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H18" s="7" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDIRECT(RIGHT(A18,1)&amp;"!P"&amp;7+LEFT(A18,1)*2)</f>
@@ -44245,9 +44248,9 @@
         <f t="array" aca="1" ref="N18" ca="1">INDIRECT(RIGHT(B18,1)&amp;"!P"&amp;7+LEFT(B18,1)*2)</f>
         <v>Colombia</v>
       </c>
-      <c r="O18" s="180" t="str">
+      <c r="O18" s="180" t="e" vm="13">
         <f ca="1">IFERROR(VLOOKUP(N18,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="175" t="str">
@@ -44259,7 +44262,7 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -44281,7 +44284,7 @@
       <c r="Q19" s="182"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -44298,26 +44301,26 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S22" s="259"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S23" s="283" t="s">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S24" s="284"/>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="285"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S25" s="273" t="s">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S26" s="274"/>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="275"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S27" s="50"/>
     </row>
   </sheetData>
@@ -44475,30 +44478,30 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
-    <col min="16" max="16" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="37.5" customWidth="1"/>
-    <col min="18" max="18" width="0.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="27" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="18" max="18" width="0.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="27" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="73" t="s">
         <v>34</v>
       </c>
@@ -44510,15 +44513,15 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
@@ -44528,7 +44531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
@@ -44545,7 +44548,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="15">
         <v>29</v>
       </c>
@@ -44558,9 +44561,9 @@
         <v>45482.833333333336</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="180" t="str">
+      <c r="G9" s="180" t="e" vm="1">
         <f ca="1">IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="7" t="str">
         <f ca="1">+Cuartos!S9</f>
@@ -44581,9 +44584,9 @@
         <f ca="1">+Cuartos!S12</f>
         <v>Venezuela</v>
       </c>
-      <c r="O9" s="180" t="str">
+      <c r="O9" s="180" t="e" vm="6">
         <f ca="1">IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="175" t="str">
@@ -44595,7 +44598,7 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="10" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -44617,7 +44620,7 @@
       <c r="Q10" s="175"/>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -44635,7 +44638,7 @@
       <c r="Q11" s="175"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15">
         <f>+C9+1</f>
         <v>30</v>
@@ -44649,9 +44652,9 @@
         <v>45483.833333333336</v>
       </c>
       <c r="F12" s="180"/>
-      <c r="G12" s="180" t="str">
+      <c r="G12" s="180" t="e" vm="11">
         <f ca="1">IFERROR(VLOOKUP(H12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H12" s="7" t="str">
         <f ca="1">+Cuartos!S18</f>
@@ -44672,9 +44675,9 @@
         <f ca="1">+Cuartos!S15</f>
         <v>Brasil</v>
       </c>
-      <c r="O12" s="180" t="str">
+      <c r="O12" s="180" t="e" vm="15">
         <f ca="1">IFERROR(VLOOKUP(N12,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="175" t="str">
@@ -44686,7 +44689,7 @@
         <v>Brasil</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -44712,7 +44715,7 @@
       <c r="Q13" s="10"/>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -44729,26 +44732,26 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="16" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S16" s="259"/>
     </row>
-    <row r="17" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S17" s="283" t="s">
+    <row r="17" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S18" s="284"/>
+    <row r="18" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="285"/>
     </row>
-    <row r="19" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S19" s="273" t="s">
+    <row r="19" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S20" s="274"/>
+    <row r="20" spans="19:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="275"/>
     </row>
-    <row r="21" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S21" s="50"/>
     </row>
   </sheetData>
@@ -44856,30 +44859,30 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.33203125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
-    <col min="16" max="16" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="37.5" customWidth="1"/>
-    <col min="18" max="18" width="0.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="27" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="18" max="18" width="0.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="27" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="73" t="s">
         <v>34</v>
       </c>
@@ -44891,22 +44894,22 @@
       </c>
       <c r="F7" s="179"/>
       <c r="G7" s="179"/>
-      <c r="H7" s="285" t="s">
+      <c r="H7" s="286" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
       <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
@@ -44923,7 +44926,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="15">
         <v>31</v>
       </c>
@@ -44936,9 +44939,9 @@
         <v>45486.833333333336</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="180" t="str">
+      <c r="G9" s="180" t="e" vm="6">
         <f ca="1">IFERROR(VLOOKUP(H9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H9" s="7" t="str">
         <f ca="1">IF(OR(Semis!J9="",Semis!L9=""),"",IF(Semis!J9&gt;Semis!L9,Semis!N9,IF(Semis!J9&lt;Semis!L9,Semis!H9,IF(OR(Semis!J10="",Semis!L10=""),"",IF(Semis!J10&gt;Semis!L10,Semis!N9,Semis!H9)))))</f>
@@ -44959,9 +44962,9 @@
         <f ca="1">IF(OR(Semis!J12="",Semis!L12=""),"",IF(Semis!J12&gt;Semis!L12,Semis!N12,IF(Semis!J12&lt;Semis!L12,Semis!H12,IF(OR(Semis!J13="",Semis!L13=""),"",IF(Semis!J13&gt;Semis!L13,Semis!N12,Semis!H12)))))</f>
         <v>Uruguay</v>
       </c>
-      <c r="O9" s="180" t="str">
+      <c r="O9" s="180" t="e" vm="11">
         <f ca="1">IFERROR(VLOOKUP(N9,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="175" t="str">
@@ -44969,7 +44972,7 @@
         <v>Bank of America Stadium - CHARLOTTE, NC</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -44990,7 +44993,7 @@
       <c r="P10" s="23"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
@@ -45007,7 +45010,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="13" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="73" t="s">
         <v>34</v>
       </c>
@@ -45019,22 +45022,22 @@
       </c>
       <c r="F13" s="179"/>
       <c r="G13" s="179"/>
-      <c r="H13" s="285" t="s">
+      <c r="H13" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="285"/>
-      <c r="N13" s="285"/>
+      <c r="I13" s="286"/>
+      <c r="J13" s="286"/>
+      <c r="K13" s="286"/>
+      <c r="L13" s="286"/>
+      <c r="M13" s="286"/>
+      <c r="N13" s="286"/>
       <c r="O13" s="177"/>
       <c r="P13" s="177"/>
       <c r="Q13" s="75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
@@ -45051,7 +45054,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="15">
         <v>32</v>
       </c>
@@ -45064,9 +45067,9 @@
         <v>45487.833333333336</v>
       </c>
       <c r="F15" s="180"/>
-      <c r="G15" s="180" t="str">
+      <c r="G15" s="180" t="e" vm="1">
         <f ca="1">IFERROR(VLOOKUP(H15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="H15" s="7" t="str">
         <f ca="1">+Semis!S9</f>
@@ -45087,9 +45090,9 @@
         <f ca="1">+Semis!S12</f>
         <v>Brasil</v>
       </c>
-      <c r="O15" s="180" t="str">
+      <c r="O15" s="180" t="e" vm="15">
         <f ca="1">IFERROR(VLOOKUP(N15,Aux!$A:$C,3,0),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="175" t="str">
@@ -45097,7 +45100,7 @@
         <v>Hard Rock Stadium - MIAMI, FL</v>
       </c>
     </row>
-    <row r="16" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -45120,7 +45123,7 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
@@ -45137,67 +45140,67 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="19" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="287" t="s">
+    <row r="19" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="288" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="287"/>
-      <c r="J19" s="287"/>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="287"/>
-      <c r="N19" s="287"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
+      <c r="N19" s="288"/>
       <c r="S19" s="259"/>
     </row>
-    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
-      <c r="L20" s="287"/>
-      <c r="M20" s="287"/>
-      <c r="N20" s="287"/>
-      <c r="S20" s="283" t="s">
+    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="288"/>
+      <c r="S20" s="284" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S21" s="284"/>
+    <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="285"/>
     </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="288" t="str">
+    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="289" t="str">
         <f ca="1">IF(OR(J15="",L15=""),"",IF(J15&gt;L15,H15,IF(J15&lt;L15,N15,IF(OR(J16="",L16=""),"",IF(J16&gt;L16,H15,N15)))))</f>
         <v>Brasil</v>
       </c>
-      <c r="I22" s="288"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
-      <c r="N22" s="288"/>
-      <c r="S22" s="273" t="s">
+      <c r="I22" s="289"/>
+      <c r="J22" s="289"/>
+      <c r="K22" s="289"/>
+      <c r="L22" s="289"/>
+      <c r="M22" s="289"/>
+      <c r="N22" s="289"/>
+      <c r="S22" s="274" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="3:19" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="288"/>
-      <c r="L23" s="288"/>
-      <c r="M23" s="288"/>
-      <c r="N23" s="288"/>
+      <c r="H23" s="289"/>
+      <c r="I23" s="289"/>
+      <c r="J23" s="289"/>
+      <c r="K23" s="289"/>
+      <c r="L23" s="289"/>
+      <c r="M23" s="289"/>
+      <c r="N23" s="289"/>
       <c r="O23" s="178"/>
       <c r="P23" s="178"/>
       <c r="Q23"/>
-      <c r="S23" s="274"/>
+      <c r="S23" s="275"/>
     </row>
-    <row r="24" spans="3:19" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" s="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -45215,44 +45218,44 @@
       <c r="Q24"/>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="286" t="str">
+    <row r="25" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="287" t="e" vm="15">
         <f ca="1">IFERROR(VLOOKUP(H22,Aux!$A:$C,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="286"/>
-      <c r="L25" s="286"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="286"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="287"/>
+      <c r="L25" s="287"/>
+      <c r="M25" s="287"/>
+      <c r="N25" s="287"/>
     </row>
-    <row r="26" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="286"/>
-      <c r="I26" s="286"/>
-      <c r="J26" s="286"/>
-      <c r="K26" s="286"/>
-      <c r="L26" s="286"/>
-      <c r="M26" s="286"/>
-      <c r="N26" s="286"/>
+    <row r="26" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="287"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="287"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="287"/>
     </row>
-    <row r="27" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="286"/>
-      <c r="I27" s="286"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="286"/>
+    <row r="27" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="287"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="287"/>
     </row>
-    <row r="28" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="286"/>
-      <c r="I28" s="286"/>
-      <c r="J28" s="286"/>
-      <c r="K28" s="286"/>
-      <c r="L28" s="286"/>
-      <c r="M28" s="286"/>
-      <c r="N28" s="286"/>
+    <row r="28" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="287"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="287"/>
+      <c r="K28" s="287"/>
+      <c r="L28" s="287"/>
+      <c r="M28" s="287"/>
+      <c r="N28" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -45380,20 +45383,20 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="68" customWidth="1"/>
-    <col min="14" max="15" width="10.6640625" style="68"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="68" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45449,7 +45452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -45514,7 +45517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -45576,7 +45579,7 @@
       </c>
       <c r="AA3" s="67"/>
     </row>
-    <row r="4" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
@@ -45637,7 +45640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -45698,7 +45701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -45759,7 +45762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>128</v>
       </c>
@@ -45820,7 +45823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -45881,7 +45884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
@@ -45942,7 +45945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
@@ -46003,7 +46006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>117</v>
       </c>
@@ -46064,7 +46067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -46125,7 +46128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
@@ -46186,7 +46189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>130</v>
       </c>
@@ -46247,7 +46250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -46308,7 +46311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
@@ -46369,7 +46372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>114</v>
       </c>
@@ -46430,7 +46433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="67"/>
       <c r="C18" s="1"/>
@@ -46478,7 +46481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="67"/>
       <c r="C19" s="1"/>
@@ -46519,7 +46522,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="67"/>
       <c r="C20" s="1"/>
@@ -46560,7 +46563,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="67"/>
       <c r="C21" s="1"/>
@@ -46600,7 +46603,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="67"/>
       <c r="C22" s="1"/>
@@ -46641,7 +46644,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="67"/>
       <c r="C23" s="1"/>
@@ -46681,7 +46684,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="67"/>
       <c r="C24" s="1"/>
@@ -46722,7 +46725,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="67"/>
       <c r="C25" s="1"/>
@@ -46762,7 +46765,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="67"/>
       <c r="C26" s="1"/>
       <c r="F26">
@@ -46801,7 +46804,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="F27">
         <v>26</v>
@@ -46839,7 +46842,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>27</v>
       </c>
@@ -46876,7 +46879,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>28</v>
       </c>
@@ -46913,7 +46916,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>29</v>
       </c>
@@ -46950,7 +46953,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>30</v>
       </c>
@@ -46987,7 +46990,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>31</v>
       </c>
@@ -47024,7 +47027,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="6:15" ht="25.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:15" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>32</v>
       </c>
